--- a/busteter/evidence.xlsx
+++ b/busteter/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/778f0630af30ae08/Masaüstü/nodes/cosmos/GOn/vera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E1E92BD-F059-4ABE-89E5-D074ADB24080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{2E1E92BD-F059-4ABE-89E5-D074ADB24080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DFECFEC-DECA-4609-BEA5-46C04DF96613}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,9 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
     <t>tx hash on irisnet</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -140,13 +125,55 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>173E878F0ABB3BD12AEA38E5266E4F56A444DEC13E2FDDF0859F57736EE64984</t>
+  </si>
+  <si>
+    <t>veraNFT</t>
+  </si>
+  <si>
+    <t>F34277045B0F21588692F2204DC397D64E1F5ACBB42EB074251423BD47E3D050</t>
+  </si>
+  <si>
+    <t>bus1</t>
+  </si>
+  <si>
+    <t>D5D6440B57B3D094F0BF51D18D601E5221FCEAF56075F39639F72BB6FB9F1C54</t>
+  </si>
+  <si>
+    <t>veranNFT</t>
+  </si>
+  <si>
+    <t>bus2</t>
+  </si>
+  <si>
+    <t>juno154ar559vn4dz3rguylw9vw3qm6rhmcp3a2ykfcxk9rsewz2v7crqxpuw55</t>
+  </si>
+  <si>
+    <t>0A538A67CEA21B05BDD8F06188D30E524CB8706993C07EDB58FEE1B38DF821FF</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>ibc/167715A6B8FE9C97605E84F4A2913A78FA828EB958FB63F92BA4D3C2834B0969</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>5DC23F7EA03CCADBB815BC8E4B103991EEA0764A9ADE4754D2C2CD88EF38C7B4</t>
+  </si>
+  <si>
+    <t>C46A66376ADD498104B533904959F58F392C48FC349506AFBE05998E110A283C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +186,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -213,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -225,6 +258,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -534,72 +570,72 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -616,13 +652,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -630,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -652,13 +688,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -666,7 +702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -688,13 +724,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -702,7 +738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -724,13 +760,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -738,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -760,13 +796,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -782,12 +818,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -806,13 +842,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -828,12 +864,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -852,13 +888,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -874,12 +910,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -898,13 +934,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -920,12 +956,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -944,13 +980,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,7 +994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -966,12 +1002,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -990,13 +1026,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1012,12 +1048,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1034,14 +1070,16 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,12 +1087,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1071,13 +1109,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1093,12 +1131,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1117,13 +1155,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1139,12 +1177,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1163,22 +1201,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1197,22 +1235,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1231,22 +1269,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1265,22 +1303,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1295,17 +1333,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,18 +1356,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1339,16 +1391,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1362,18 +1416,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1388,16 +1442,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,18 +1467,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1437,16 +1493,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,18 +1518,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1486,17 +1544,19 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1510,18 +1570,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1538,13 +1598,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1552,7 +1612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1574,13 +1634,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/busteter/evidence.xlsx
+++ b/busteter/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/778f0630af30ae08/Masaüstü/nodes/cosmos/GOn/vera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{2E1E92BD-F059-4ABE-89E5-D074ADB24080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DFECFEC-DECA-4609-BEA5-46C04DF96613}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{2E1E92BD-F059-4ABE-89E5-D074ADB24080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C4F4E9-E8FD-42B6-AB0E-3EC4CAA9A6B8}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" tabRatio="777" firstSheet="2" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>tx hash on irisnet</t>
   </si>
   <si>
@@ -167,6 +152,156 @@
   </si>
   <si>
     <t>C46A66376ADD498104B533904959F58F392C48FC349506AFBE05998E110A283C</t>
+  </si>
+  <si>
+    <t>ibc/667E163CD09188B2721D619A20756D373FC1C10EECB686D9F6C9F6D7FDA76E58</t>
+  </si>
+  <si>
+    <t>bus0077</t>
+  </si>
+  <si>
+    <t>ibc/494876C18EFA458ED4978431B18414E08508342B5F87E505E12F1D1EB7058F38</t>
+  </si>
+  <si>
+    <t>bus0088</t>
+  </si>
+  <si>
+    <t>ibc/3F3A790972535F0020CED49968F3E121D9F3F55D527CE9A16DE4174D9769CC7D</t>
+  </si>
+  <si>
+    <t>bus0099</t>
+  </si>
+  <si>
+    <t>ibc/D786979831F7EDBF9959AEE5BDD6398D69E6580CE1A9C744002EC68F90A2EEA5</t>
+  </si>
+  <si>
+    <t>bus010</t>
+  </si>
+  <si>
+    <t>ibc/286189BEDD3A1B78452810208507DC36D364435448087995E83A68EF6A6370FC</t>
+  </si>
+  <si>
+    <t>bus011</t>
+  </si>
+  <si>
+    <t>ibc/398F0A7219A04480A1D4A297A86F6A2D5C1FE5DC5063B062136E99B14E9E7DFD</t>
+  </si>
+  <si>
+    <t>bus012</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>B535CD4DB6973E49D4C7AF0CC1601323183A281C05E68C6B02029AA229015B03</t>
+  </si>
+  <si>
+    <t>E95DF01D61CCBA438863C46C6B94EEE39AEECB10F71C33090C5DFE2C9AFCBA63</t>
+  </si>
+  <si>
+    <t>3F854BCA7456ACD03968E5246E619B18D3D20194509687C47148D3B29C111226</t>
+  </si>
+  <si>
+    <t>B7BFAF86F2A1A8218601A98A13F7C8A8791BBF1376C1A8B0AA3528D8EB19A4DA</t>
+  </si>
+  <si>
+    <t>8A27580A45CE6BD0FACA1423ACBC7C7CC99121716FA70DAA512EBD903DA61252</t>
+  </si>
+  <si>
+    <t>24103ED001FB480C36B8D8E4C9609B2AB07182B5351380680D99DA181C780984</t>
+  </si>
+  <si>
+    <t>256899453B237179E1EABB2CC66E006C3DD13EF337D4E78FA2A811A32796EEC3</t>
+  </si>
+  <si>
+    <t>DC74B9A2538737DC6C7DFAEC0E19F12BF6A0B819CF4B3250949323D73A52D679</t>
+  </si>
+  <si>
+    <t>1EAF845C3EC030EF15539E1B272348D3BBADEEA65669CB55574AB1BB20425A96</t>
+  </si>
+  <si>
+    <t>800A4A32B939E63375F9257DF1301EB8C83FC43F6B18B08CBF43D3059C8AF221</t>
+  </si>
+  <si>
+    <t>A9CC8DBDED786CF2716375121775B3193D0C89349C7CF53267A3B4E149030676</t>
+  </si>
+  <si>
+    <t>4653F389A438DA9448EE9A4907B9A1FB3A9D0F4F62CCD902B5D7195240A06248</t>
+  </si>
+  <si>
+    <t>DE287CCDDD96732605C0060609A050C4C27DF8042D519E5E0AA72516392AC463</t>
+  </si>
+  <si>
+    <t>73054DCD14F7C02740945ECCBD38DC3B20929A3D1E1B45F5716D3E665C8F2B23</t>
+  </si>
+  <si>
+    <t>F7B640548377CAFD709FE102E15A9D503559267E4EDF23830D2F7E3CB179339C</t>
+  </si>
+  <si>
+    <t>89A9D1EF2793F5BF48D8A2F0F92F0D9B444BD26102BFAFDD61DBA7CA9072312B</t>
+  </si>
+  <si>
+    <t>F422E96BC0740112F40D25DB6F52AC0B8563EF2C66A835E5FF68726EE93E3AC5</t>
+  </si>
+  <si>
+    <t>A734D196331A71F0C4C3D1654FF7EC8642209C2330246873AA704B16338CD62A</t>
+  </si>
+  <si>
+    <t>933024D125EA334FC05263951F8218F17FBAC6DB4FECF4D8FA7D8D0C70050EDF</t>
+  </si>
+  <si>
+    <t>E455695840B1021DA1DD8496CB96870B3DCC75A266C93465AE241334F7733AD7</t>
+  </si>
+  <si>
+    <t>2C7864E9624912C6ADEBED8232A3AAD9797588790CFFC050A6FA5F8692E78A68</t>
+  </si>
+  <si>
+    <t>0AE5FFB01AD9E2225CCFE7230C3BB5159653A5C79884E563F816E4D6AF51C4D1</t>
+  </si>
+  <si>
+    <t>6AC1CC98B2376B8E67C4B8DE9D2E1886DD9BAA5B90683AA3E22AD00732D0A70D</t>
+  </si>
+  <si>
+    <t>C2321746B9DB3233AFFA5B1FC9618A6EB45B0135A1F8F56E2697C29596EFA59D</t>
+  </si>
+  <si>
+    <t>C2CAECBD6C07196C98F737F4674FB1D37B7522E29CEBFCF65075AFD40A7D0A49</t>
+  </si>
+  <si>
+    <t>D82814BEE6459FA48A23FD05399516B52F9E20390270B6BCA14451721BA49F39</t>
+  </si>
+  <si>
+    <t>CAD4F5BEEE355F90C3B34BDB3468805F3790D07E6B78437F2353025D0CE6CBF4</t>
+  </si>
+  <si>
+    <t>039747911E3644EE4FD518540E3593E28D623AF8C0A81B4365F83AA9ADF17D1F</t>
+  </si>
+  <si>
+    <t>D8D82F51E4B4778199151BEB783EDE1B329BFDB718B7E4122D049D9F2D6BB2E7</t>
+  </si>
+  <si>
+    <t>079DA69E891C98C5B2CA24FC44BD4737D773D5347D2C3638BDE97ADDE543E4AF</t>
+  </si>
+  <si>
+    <t>F37EF36A41313F4A9C99BD5F29AF04D36BE48B61BFF91FFCEE08D4DFE3B9A8EF</t>
+  </si>
+  <si>
+    <t>5C373F8C2AF0A9D66F833B32ADFC756F593CBEAF69B9C0F37CB37FABDA21FF5D</t>
+  </si>
+  <si>
+    <t>081E0A0BD5B9E720250ACA89FCB8B06AAA5496F120A44F34641CF11EE7F2DE1C</t>
+  </si>
+  <si>
+    <t>273621C6D7E8945B1C56D0DC43DE997BA0DF1096717E37B0873BF13D626C0FE6</t>
+  </si>
+  <si>
+    <t>A6F3C8CDCAF74176303F09D5B727794708727B7F7DEADDB1ABA496C4EF0AD9DC</t>
   </si>
 </sst>
 </file>
@@ -246,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -263,6 +398,10 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,54 +727,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +789,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -660,18 +801,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +827,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -696,18 +839,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +865,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -732,18 +877,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +903,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -768,18 +915,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -792,9 +939,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -812,20 +961,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -838,9 +1001,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -858,20 +1023,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -884,9 +1063,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -904,20 +1085,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -930,9 +1125,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -950,20 +1147,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -976,9 +1187,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -996,20 +1209,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1022,9 +1249,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1042,20 +1271,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1084,15 +1327,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1105,9 +1348,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1125,20 +1370,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1151,9 +1426,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1171,20 +1448,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1350,32 +1657,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1699,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1418,16 +1725,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1750,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1469,16 +1776,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1801,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1520,16 +1827,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1544,8 +1851,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1572,31 +1879,71 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1606,54 +1953,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
